--- a/excel archives/Sample-Amazon-Webscraper.xlsx
+++ b/excel archives/Sample-Amazon-Webscraper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\WebscrapingSuite\excel archives\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073AF6FE-D158-494F-8333-B8AC778F0398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE21B574-06C0-457D-9588-781531377014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="5" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="10" r:id="rId1"/>
@@ -1909,7 +1909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317D1DB-5C3E-4320-8ED1-BC4F63A69614}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2137,7 +2137,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3489,15 +3489,15 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -3959,8 +3959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB6AC3C-1F6F-454E-8ECB-F3E18E6A0BC8}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
